--- a/Docs/Desenv/Esforco Desenv.xlsx
+++ b/Docs/Desenv/Esforco Desenv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Apps/Bexx/Docs/Desenv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/Apps/Bexx/bexx/template/Docs/Desenv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8F8B32-A19A-2C4D-9655-D10D9041A54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D724D3F-63A8-C74E-AE2F-0C580251BE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="560" windowWidth="20740" windowHeight="11160" xr2:uid="{3B7AFDB1-970F-924F-AC3E-BA1310BA029D}"/>
+    <workbookView xWindow="1780" yWindow="-20800" windowWidth="33580" windowHeight="20460" xr2:uid="{3B7AFDB1-970F-924F-AC3E-BA1310BA029D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF635B2-FD0E-5E4D-B8C9-3351131017B6}">
   <dimension ref="B1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D269" sqref="D269"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="145" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>249</v>
